--- a/processed_data/staff_data_scraped.xlsx
+++ b/processed_data/staff_data_scraped.xlsx
@@ -392,7 +392,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/mala-adiga/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/mala-adiga/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -414,7 +414,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/elizabeth-alexander/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/elizabeth-alexander/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -436,7 +436,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/kate-bedingfield/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/kate-bedingfield/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -458,7 +458,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/anthony-bernal/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/anthony-bernal/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/reema-dodin/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/reema-dodin/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/mike-donilon/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/mike-donilon/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/carlos-elizondo/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/carlos-elizondo/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/ashley-etienne/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/ashley-etienne/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/shuwanza-goff/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/shuwanza-goff/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/karine-jean-pierre/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/karine-jean-pierre/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/ron-klain/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/ron-klain/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/rohini-kosoglu/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/rohini-kosoglu/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/nancy-mceldowney/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/nancy-mceldowney/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/jen-omalley-dillon/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/jen-omalley-dillon/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/jen-psaki/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/jen-psaki/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/dana-remus/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/dana-remus/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/julissa-reynoso-pantaleon/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/julissa-reynoso-pantaleon/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/steve-ricchetti/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/steve-ricchetti/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/cedric-richmond/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/cedric-richmond/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/julie-rodriguez/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/julie-rodriguez/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/cathy-russell/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/cathy-russell/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/symone-sanders/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/symone-sanders/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/louisa-terrell/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/louisa-terrell/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/pili-tobar/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/pili-tobar/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/annie-tomasini/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/annie-tomasini/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
